--- a/RunningTheNumbers/Data/Performances Working.xlsx
+++ b/RunningTheNumbers/Data/Performances Working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicky Brown\Documents\GitHub\Running-The-Numbers\RunningTheNumbers\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E2192-4B2E-438D-A497-0DFC17761A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D93386-4830-4B3F-B053-7740A966F6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17940" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -406,6 +406,57 @@
   </si>
   <si>
     <t>J.P. McCaskey &amp; Annville-Cleona @ Lancaster Catholic (Girls)</t>
+  </si>
+  <si>
+    <t>Elizabethtown &amp; Lebanon &amp; Northern Lebanon @ Hempfield (Boys)</t>
+  </si>
+  <si>
+    <t>Elizabethtown &amp; Lebanon &amp; Northern Lebanon @ Hempfield (Girls)</t>
+  </si>
+  <si>
+    <t>Conestoga Valley &amp; Warkwick &amp; Garden Spot &amp; Ephrata @ Home (Boys)</t>
+  </si>
+  <si>
+    <t>Conestoga Valley &amp; Warkwick &amp; Garden Spot &amp; Ephrata @ Home (Girls)</t>
+  </si>
+  <si>
+    <t>Lebanon County Meet @ South Hills (Varsity Boys)</t>
+  </si>
+  <si>
+    <t>M-Rob</t>
+  </si>
+  <si>
+    <t>Lebanon County Meet @ South Hills (JV Boys)</t>
+  </si>
+  <si>
+    <t>Lebanon County Meet @ South Hills (Varsity Girls)</t>
+  </si>
+  <si>
+    <t>Lebanon County Meet @ South Hills (JV Girls)</t>
+  </si>
+  <si>
+    <t>Bradi</t>
+  </si>
+  <si>
+    <t>Lancaster Mennonite &amp; Columbia &amp; Lampeter-Strasburg @ Donegal (Boys)</t>
+  </si>
+  <si>
+    <t>Lancaster Mennonite &amp; Columbia &amp; Lampeter-Strasburg @ Donegal (Girls)</t>
+  </si>
+  <si>
+    <t>Carlisle Meet of Champions (Varsity Boys)</t>
+  </si>
+  <si>
+    <t>Carlisle Meet of Champions (JV Boys)</t>
+  </si>
+  <si>
+    <t>Carlisle Meet of Champions (Varsity Girls)</t>
+  </si>
+  <si>
+    <t>Meg Feeley</t>
+  </si>
+  <si>
+    <t>Carlisle Meet of Champions (JV Girls)</t>
   </si>
 </sst>
 </file>
@@ -901,7 +952,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -919,6 +970,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1275,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,6 +1361,7 @@
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
@@ -3393,7 +3464,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B87" t="s">
@@ -3509,7 +3580,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B91" t="s">
@@ -3543,7 +3614,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B93" t="s">
@@ -3614,9 +3685,6556 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J98" s="8"/>
+      <c r="A98" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D98" s="11">
+        <v>2</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="F98" s="11">
+        <v>1</v>
+      </c>
+      <c r="G98" s="12">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="H98" s="11">
+        <v>1</v>
+      </c>
+      <c r="I98" s="12">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="J98" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="F99" s="11">
+        <v>3</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H99" s="11">
+        <v>3</v>
+      </c>
+      <c r="I99" s="12">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="J99" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="F100" s="11">
+        <v>6</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="H100" s="11">
+        <v>5</v>
+      </c>
+      <c r="I100" s="12">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="J100" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D101" s="11">
+        <v>3</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="F101" s="11">
+        <v>7</v>
+      </c>
+      <c r="G101" s="12">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="H101" s="11">
+        <v>7</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="J101" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F102" s="11">
+        <v>11</v>
+      </c>
+      <c r="G102" s="12">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="H102" s="11">
+        <v>13</v>
+      </c>
+      <c r="I102" s="12">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="J102" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="F103" s="11">
+        <v>16</v>
+      </c>
+      <c r="G103" s="12">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="H103" s="11">
+        <v>14</v>
+      </c>
+      <c r="I103" s="12">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="J103" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F104" s="11">
+        <v>17</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H104" s="11">
+        <v>15</v>
+      </c>
+      <c r="I104" s="12">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="J104" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="F105" s="11">
+        <v>18</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H105" s="11">
+        <v>17</v>
+      </c>
+      <c r="I105" s="12">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="J105" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="F106" s="11">
+        <v>22</v>
+      </c>
+      <c r="G106" s="12">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="H106" s="11">
+        <v>20</v>
+      </c>
+      <c r="I106" s="12">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="J106" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F107" s="11">
+        <v>21</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="H107" s="11">
+        <v>21</v>
+      </c>
+      <c r="I107" s="12">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="J107" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F108" s="11">
+        <v>19</v>
+      </c>
+      <c r="G108" s="12">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="H108" s="11">
+        <v>24</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="J108" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="F109" s="11">
+        <v>31</v>
+      </c>
+      <c r="G109" s="12">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="H109" s="11">
+        <v>29</v>
+      </c>
+      <c r="I109" s="12">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="J109" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F110" s="11">
+        <v>42</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="H110" s="11">
+        <v>32</v>
+      </c>
+      <c r="I110" s="12">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="J110" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F111" s="11">
+        <v>41</v>
+      </c>
+      <c r="G111" s="12">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H111" s="11">
+        <v>34</v>
+      </c>
+      <c r="I111" s="12">
+        <v>0.81388888888888899</v>
+      </c>
+      <c r="J111" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="F112" s="11">
+        <v>32</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="H112" s="11">
+        <v>37</v>
+      </c>
+      <c r="I112" s="12">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="J112" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F113" s="11">
+        <v>47</v>
+      </c>
+      <c r="G113" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H113" s="11">
+        <v>46</v>
+      </c>
+      <c r="I113" s="12">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J113" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="F114" s="11">
+        <v>53</v>
+      </c>
+      <c r="G114" s="12">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="H114" s="11">
+        <v>49</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="J114" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="F115" s="11">
+        <v>56</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="H115" s="11">
+        <v>54</v>
+      </c>
+      <c r="I115" s="12">
+        <v>0.85902777777777783</v>
+      </c>
+      <c r="J115" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="F116" s="11">
+        <v>67</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="H116" s="11">
+        <v>66</v>
+      </c>
+      <c r="I116" s="12">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="J116" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="F117" s="11">
+        <v>72</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="H117" s="11">
+        <v>71</v>
+      </c>
+      <c r="I117" s="12">
+        <v>0.90694444444444444</v>
+      </c>
+      <c r="J117" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="F118" s="11">
+        <v>76</v>
+      </c>
+      <c r="G118" s="12">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="H118" s="11">
+        <v>74</v>
+      </c>
+      <c r="I118" s="12">
+        <v>0.9375</v>
+      </c>
+      <c r="J118" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F119" s="11">
+        <v>30</v>
+      </c>
+      <c r="G119" s="12">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="J119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="J120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="3">
+        <v>40435</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="J121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E122" s="12">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="J122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D123" s="11">
+        <v>1</v>
+      </c>
+      <c r="E123" s="12">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="F123" s="11">
+        <v>2</v>
+      </c>
+      <c r="G123" s="12">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="H123" s="11">
+        <v>2</v>
+      </c>
+      <c r="I123" s="12">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="J123" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D124" s="11">
+        <v>7</v>
+      </c>
+      <c r="E124" s="12">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="F124" s="11">
+        <v>8</v>
+      </c>
+      <c r="G124" s="12">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="H124" s="11">
+        <v>9</v>
+      </c>
+      <c r="I124" s="12">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="J124" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D125" s="11">
+        <v>19</v>
+      </c>
+      <c r="E125" s="12">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F125" s="11">
+        <v>12</v>
+      </c>
+      <c r="G125" s="12">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="H125" s="11">
+        <v>12</v>
+      </c>
+      <c r="I125" s="12">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="J125" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D126" s="11">
+        <v>14</v>
+      </c>
+      <c r="E126" s="12">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="F126" s="11">
+        <v>13</v>
+      </c>
+      <c r="G126" s="12">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="H126" s="11">
+        <v>14</v>
+      </c>
+      <c r="I126" s="12">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="J126" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D127" s="11">
+        <v>22</v>
+      </c>
+      <c r="E127" s="12">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F127" s="11">
+        <v>18</v>
+      </c>
+      <c r="G127" s="12">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="H127" s="11">
+        <v>16</v>
+      </c>
+      <c r="I127" s="12">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="J127" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D128" s="11">
+        <v>13</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="F128" s="11">
+        <v>17</v>
+      </c>
+      <c r="G128" s="12">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="H128" s="11">
+        <v>21</v>
+      </c>
+      <c r="I128" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J128" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D129" s="11">
+        <v>20</v>
+      </c>
+      <c r="E129" s="12">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F129" s="11">
+        <v>21</v>
+      </c>
+      <c r="G129" s="12">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="H129" s="11">
+        <v>22</v>
+      </c>
+      <c r="I129" s="12">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="J129" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D130" s="11">
+        <v>21</v>
+      </c>
+      <c r="E130" s="12">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F130" s="11">
+        <v>22</v>
+      </c>
+      <c r="G130" s="12">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="H130" s="11">
+        <v>23</v>
+      </c>
+      <c r="I130" s="12">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="J130" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D131" s="11">
+        <v>42</v>
+      </c>
+      <c r="E131" s="12">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="F131" s="11">
+        <v>32</v>
+      </c>
+      <c r="G131" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="H131" s="11">
+        <v>29</v>
+      </c>
+      <c r="I131" s="16">
+        <v>1.0229166666666667</v>
+      </c>
+      <c r="J131" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D132" s="11">
+        <v>36</v>
+      </c>
+      <c r="E132" s="12">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="F132" s="11">
+        <v>36</v>
+      </c>
+      <c r="G132" s="12">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="H132" s="11">
+        <v>40</v>
+      </c>
+      <c r="I132" s="16">
+        <v>1.070138888888889</v>
+      </c>
+      <c r="J132" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D133" s="11">
+        <v>49</v>
+      </c>
+      <c r="E133" s="12">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="F133" s="11">
+        <v>42</v>
+      </c>
+      <c r="G133" s="12">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="H133" s="11">
+        <v>42</v>
+      </c>
+      <c r="I133" s="16">
+        <v>1.0777777777777777</v>
+      </c>
+      <c r="J133" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D134" s="11">
+        <v>47</v>
+      </c>
+      <c r="E134" s="12">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="F134" s="11">
+        <v>43</v>
+      </c>
+      <c r="G134" s="12">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="H134" s="11">
+        <v>43</v>
+      </c>
+      <c r="I134" s="16">
+        <v>1.08125</v>
+      </c>
+      <c r="J134" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B135" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D135" s="11">
+        <v>41</v>
+      </c>
+      <c r="E135" s="12">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="F135" s="11">
+        <v>41</v>
+      </c>
+      <c r="G135" s="12">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="H135" s="11">
+        <v>45</v>
+      </c>
+      <c r="I135" s="16">
+        <v>1.086111111111111</v>
+      </c>
+      <c r="J135" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B136" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D136" s="11">
+        <v>53</v>
+      </c>
+      <c r="E136" s="12">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="F136" s="11">
+        <v>47</v>
+      </c>
+      <c r="G136" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H136" s="11">
+        <v>50</v>
+      </c>
+      <c r="I136" s="16">
+        <v>1.1347222222222222</v>
+      </c>
+      <c r="J136" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137" t="s">
+        <v>127</v>
+      </c>
+      <c r="C137" s="3">
+        <v>40435</v>
+      </c>
+      <c r="D137" s="11">
+        <v>55</v>
+      </c>
+      <c r="E137" s="12">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F137" s="11">
+        <v>50</v>
+      </c>
+      <c r="G137" s="12">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="H137" s="11">
+        <v>51</v>
+      </c>
+      <c r="I137" s="16">
+        <v>1.1375</v>
+      </c>
+      <c r="J137" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138" s="3">
+        <v>40435</v>
+      </c>
+      <c r="J138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B139" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="3">
+        <v>40435</v>
+      </c>
+      <c r="I139" s="17"/>
+      <c r="J139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" s="3">
+        <v>40435</v>
+      </c>
+      <c r="J140" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D141" s="11">
+        <v>2</v>
+      </c>
+      <c r="E141" s="12">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="F141" s="11">
+        <v>1</v>
+      </c>
+      <c r="G141" s="12">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="H141" s="11">
+        <v>1</v>
+      </c>
+      <c r="I141" s="12">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="J141" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D142" s="11">
+        <v>5</v>
+      </c>
+      <c r="E142" s="12">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="F142" s="11">
+        <v>4</v>
+      </c>
+      <c r="G142" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H142" s="11">
+        <v>3</v>
+      </c>
+      <c r="I142" s="12">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J142" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D143" s="11">
+        <v>4</v>
+      </c>
+      <c r="E143" s="12">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F143" s="11">
+        <v>5</v>
+      </c>
+      <c r="G143" s="12">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="H143" s="11">
+        <v>5</v>
+      </c>
+      <c r="I143" s="12">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="J143" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D144" s="11">
+        <v>6</v>
+      </c>
+      <c r="E144" s="12">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="F144" s="11">
+        <v>9</v>
+      </c>
+      <c r="G144" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="H144" s="11">
+        <v>9</v>
+      </c>
+      <c r="I144" s="12">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="J144" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D145" s="11">
+        <v>10</v>
+      </c>
+      <c r="E145" s="12">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="F145" s="11">
+        <v>11</v>
+      </c>
+      <c r="G145" s="12">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="H145" s="11">
+        <v>10</v>
+      </c>
+      <c r="I145" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J145" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D146" s="11">
+        <v>21</v>
+      </c>
+      <c r="E146" s="12">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="F146" s="11">
+        <v>14</v>
+      </c>
+      <c r="G146" s="12">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="H146" s="11">
+        <v>14</v>
+      </c>
+      <c r="I146" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J146" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C147" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D147" s="11">
+        <v>18</v>
+      </c>
+      <c r="E147" s="12">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="F147" s="11">
+        <v>15</v>
+      </c>
+      <c r="G147" s="12">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="H147" s="11">
+        <v>15</v>
+      </c>
+      <c r="I147" s="12">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="J147" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D148" s="11">
+        <v>22</v>
+      </c>
+      <c r="E148" s="12">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="F148" s="11">
+        <v>19</v>
+      </c>
+      <c r="G148" s="12">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="H148" s="11">
+        <v>18</v>
+      </c>
+      <c r="I148" s="12">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="J148" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E149" s="12">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G149" s="12">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="H149" s="13">
+        <v>1</v>
+      </c>
+      <c r="I149" s="12">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="J149" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E150" s="12">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G150" s="12">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="H150" s="13">
+        <v>2</v>
+      </c>
+      <c r="I150" s="12">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="J150" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E151" s="12">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G151" s="12">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="H151" s="13">
+        <v>3</v>
+      </c>
+      <c r="I151" s="12">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="J151" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E152" s="12">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G152" s="12">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="H152" s="13">
+        <v>4</v>
+      </c>
+      <c r="I152" s="12">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="J152" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E153" s="12">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="F153" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G153" s="12">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="H153" s="13">
+        <v>5</v>
+      </c>
+      <c r="I153" s="12">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="J153" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E154" s="12">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G154" s="12">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="H154" s="13">
+        <v>6</v>
+      </c>
+      <c r="I154" s="12">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="J154" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E155" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F155" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="12">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="H155" s="13">
+        <v>7</v>
+      </c>
+      <c r="I155" s="12">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="J155" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E156" s="12">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G156" s="12">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="H156" s="13">
+        <v>8</v>
+      </c>
+      <c r="I156" s="12">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="J156" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E157" s="12">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="12">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="H157" s="13">
+        <v>9</v>
+      </c>
+      <c r="I157" s="12">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="J157" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" s="12">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G158" s="12">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="H158" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I158" s="12">
+        <v>0.85625000000000007</v>
+      </c>
+      <c r="J158" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E159" s="12">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G159" s="12">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="H159" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I159" s="12">
+        <v>0.87361111111111101</v>
+      </c>
+      <c r="J159" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E160" s="12">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G160" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H160" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I160" s="12">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="J160" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C161" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E161" s="12">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G161" s="12">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="H161" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I161" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="J161" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C162" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E162" s="12">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G162" s="12">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I162" s="12">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="J162" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C163" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E163" s="12">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G163" s="12">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I163" s="12">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="J163" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C164" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E164" s="12">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G164" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="H164" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I164" s="16">
+        <v>1.0097222222222222</v>
+      </c>
+      <c r="J164" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D165" s="18"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D166" s="11">
+        <v>1</v>
+      </c>
+      <c r="E166" s="12">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F166" s="11">
+        <v>1</v>
+      </c>
+      <c r="G166" s="12">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="H166" s="11">
+        <v>1</v>
+      </c>
+      <c r="I166" s="12">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="J166" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C167" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D167" s="11">
+        <v>8</v>
+      </c>
+      <c r="E167" s="12">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F167" s="11">
+        <v>7</v>
+      </c>
+      <c r="G167" s="12">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="H167" s="11">
+        <v>8</v>
+      </c>
+      <c r="I167" s="12">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="J167" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C168" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D168" s="11">
+        <v>14</v>
+      </c>
+      <c r="E168" s="12">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="F168" s="11">
+        <v>13</v>
+      </c>
+      <c r="G168" s="12">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="H168" s="11">
+        <v>12</v>
+      </c>
+      <c r="I168" s="12">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="J168" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C169" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D169" s="11">
+        <v>15</v>
+      </c>
+      <c r="E169" s="12">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="F169" s="11">
+        <v>12</v>
+      </c>
+      <c r="G169" s="12">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="H169" s="11">
+        <v>13</v>
+      </c>
+      <c r="I169" s="12">
+        <v>0.8979166666666667</v>
+      </c>
+      <c r="J169" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C170" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D170" s="11">
+        <v>16</v>
+      </c>
+      <c r="E170" s="12">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="F170" s="11">
+        <v>18</v>
+      </c>
+      <c r="G170" s="12">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="H170" s="11">
+        <v>16</v>
+      </c>
+      <c r="I170" s="12">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="J170" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C171" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D171" s="11">
+        <v>13</v>
+      </c>
+      <c r="E171" s="12">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="F171" s="11">
+        <v>16</v>
+      </c>
+      <c r="G171" s="12">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="H171" s="11">
+        <v>18</v>
+      </c>
+      <c r="I171" s="12">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="J171" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C172" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D172" s="11">
+        <v>19</v>
+      </c>
+      <c r="E172" s="12">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="F172" s="11">
+        <v>19</v>
+      </c>
+      <c r="G172" s="12">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="H172" s="11">
+        <v>19</v>
+      </c>
+      <c r="I172" s="12">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="J172" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D173" s="11">
+        <v>22</v>
+      </c>
+      <c r="E173" s="12">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="F173" s="11">
+        <v>23</v>
+      </c>
+      <c r="G173" s="12">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="H173" s="11">
+        <v>22</v>
+      </c>
+      <c r="I173" s="12">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="J173" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E174" s="12">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="F174" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G174" s="12">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="H174" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I174" s="12">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="J174" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C175" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E175" s="12">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="F175" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G175" s="12">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="H175" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I175" s="12">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="J175" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C176" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E176" s="12">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="F176" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G176" s="12">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="H176" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I176" s="16">
+        <v>1.0215277777777778</v>
+      </c>
+      <c r="J176" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C177" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E177" s="12">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="F177" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G177" s="12">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="H177" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I177" s="16">
+        <v>1.0277777777777779</v>
+      </c>
+      <c r="J177" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E178" s="12">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="F178" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G178" s="12">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="H178" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I178" s="16">
+        <v>1.0368055555555555</v>
+      </c>
+      <c r="J178" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E179" s="12">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="F179" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G179" s="12">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="H179" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I179" s="16">
+        <v>1.0479166666666666</v>
+      </c>
+      <c r="J179" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E180" s="12">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="F180" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G180" s="12">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="H180" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180" s="16">
+        <v>1.0777777777777777</v>
+      </c>
+      <c r="J180" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C181" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E181" s="12">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="F181" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G181" s="12">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="H181" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I181" s="16">
+        <v>1.0784722222222223</v>
+      </c>
+      <c r="J181" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E182" s="12">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="F182" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G182" s="12">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="H182" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I182" s="16">
+        <v>1.1006944444444444</v>
+      </c>
+      <c r="J182" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E183" s="12">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="F183" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G183" s="12">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="H183" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I183" s="16">
+        <v>1.1118055555555555</v>
+      </c>
+      <c r="J183" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E184" s="12">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F184" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G184" s="12">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="H184" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I184" s="16">
+        <v>1.1118055555555555</v>
+      </c>
+      <c r="J184" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186" s="19">
+        <v>40439</v>
+      </c>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C187" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E187" s="12">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="F187" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G187" s="12">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C188" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E188" s="12">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="F188" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G188" s="12">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C189" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E189" s="12">
+        <v>0.21875</v>
+      </c>
+      <c r="F189" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G189" s="12">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C190" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E190" s="12">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="F190" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G190" s="12">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C191" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E191" s="12">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="F191" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G191" s="12">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C192" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E192" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F192" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G192" s="12">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C193" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E193" s="12">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F193" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G193" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C194" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E194" s="12">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="F194" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G194" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C195" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E195" s="12">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F195" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G195" s="12">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C196" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E196" s="12">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F196" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G196" s="12">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="H196" s="18"/>
+      <c r="I196" s="18"/>
+      <c r="J196" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C197" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F197" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G197" s="12">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="H197" s="18"/>
+      <c r="I197" s="18"/>
+      <c r="J197" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C198" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E198" s="12">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F198" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G198" s="12">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="H198" s="18"/>
+      <c r="I198" s="18"/>
+      <c r="J198" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C199" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E199" s="12">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G199" s="12">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="J199" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C200" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E200" s="12">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G200" s="12">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
+      <c r="J200" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C201" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E201" s="12">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="F201" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G201" s="12">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C202" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E202" s="12">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G202" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C203" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E203" s="12">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="F203" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G203" s="12">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="H203" s="18"/>
+      <c r="I203" s="18"/>
+      <c r="J203" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C204" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E204" s="12">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G204" s="12">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="H204" s="18"/>
+      <c r="I204" s="18"/>
+      <c r="J204" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C205" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E205" s="12">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="F205" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G205" s="12">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18"/>
+      <c r="J205" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C206" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E206" s="12">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="F206" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G206" s="12">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C207" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E207" s="12">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="F207" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G207" s="12">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C208" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G208" s="12">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
+      <c r="J208" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C209" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E209" s="12">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="F209" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G209" s="12">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+      <c r="J209" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C210" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D210" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="F210" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G210" s="12">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
+      <c r="J210" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C211" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D211" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E211" s="12">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="F211" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G211" s="12">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
+      <c r="J211" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C212" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D212" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="F212" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G212" s="12">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="H212" s="18"/>
+      <c r="I212" s="18"/>
+      <c r="J212" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C213" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D213" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E213" s="12">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="F213" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G213" s="12">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H213" s="18"/>
+      <c r="I213" s="18"/>
+      <c r="J213" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C214" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D214" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E214" s="12">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="F214" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G214" s="12">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="H214" s="18"/>
+      <c r="I214" s="18"/>
+      <c r="J214" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C215" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D215" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E215" s="12">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="F215" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G215" s="12">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="H215" s="18"/>
+      <c r="I215" s="18"/>
+      <c r="J215" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C216" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D216" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E216" s="12">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="F216" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G216" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H216" s="18"/>
+      <c r="I216" s="18"/>
+      <c r="J216" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C217" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D217" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E217" s="12">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="F217" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G217" s="12">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
+      <c r="J217" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C218" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D218" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E218" s="12">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="F218" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G218" s="12">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H218" s="18"/>
+      <c r="I218" s="18"/>
+      <c r="J218" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C219" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D219" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E219" s="12">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="F219" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G219" s="12">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H219" s="18"/>
+      <c r="I219" s="18"/>
+      <c r="J219" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C220" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D220" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E220" s="12">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="F220" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G220" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H220" s="18"/>
+      <c r="I220" s="18"/>
+      <c r="J220" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C221" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D221" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E221" s="12">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="F221" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G221" s="12">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="H221" s="18"/>
+      <c r="I221" s="18"/>
+      <c r="J221" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C222" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D222" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E222" s="12">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="F222" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G222" s="12">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="H222" s="18"/>
+      <c r="I222" s="18"/>
+      <c r="J222" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C223" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D223" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E223" s="12">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="F223" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G223" s="12">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="H223" s="18"/>
+      <c r="I223" s="18"/>
+      <c r="J223" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C224" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D224" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E224" s="21">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="F224" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G224" s="21">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="H224" s="18"/>
+      <c r="I224" s="18"/>
+      <c r="J224" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C225" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D225" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E225" s="21">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="F225" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G225" s="21">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="H225" s="18"/>
+      <c r="I225" s="18"/>
+      <c r="J225" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C226" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D226" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E226" s="21">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F226" s="20"/>
+      <c r="G226" s="18"/>
+      <c r="H226" s="18"/>
+      <c r="I226" s="18"/>
+      <c r="J226" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C227" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D227" s="18"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="18"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="18"/>
+      <c r="I227" s="18"/>
+      <c r="J227" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C228" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D228" s="18"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="18"/>
+      <c r="I228" s="18"/>
+      <c r="J228" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C229" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D229" s="20"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
+      <c r="J229" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C230" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D230" s="20"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
+      <c r="J230" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C231" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D231" s="20"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="18"/>
+      <c r="I231" s="18"/>
+      <c r="J231" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C232" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D232" s="20"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="18"/>
+      <c r="H232" s="18"/>
+      <c r="I232" s="18"/>
+      <c r="J232" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C233" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D233" s="20"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="18"/>
+      <c r="G233" s="18"/>
+      <c r="H233" s="18"/>
+      <c r="J233" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C234" s="19">
+        <v>40442</v>
+      </c>
+      <c r="D234" s="20"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="18"/>
+      <c r="I234" s="18"/>
+      <c r="J234" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C235" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D235" s="11">
+        <v>19</v>
+      </c>
+      <c r="E235" s="12">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="F235" s="11">
+        <v>16</v>
+      </c>
+      <c r="G235" s="12">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="H235" s="11">
+        <v>20</v>
+      </c>
+      <c r="I235" s="12">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="J235" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C236" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D236" s="11">
+        <v>69</v>
+      </c>
+      <c r="E236" s="12">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="F236" s="11">
+        <v>46</v>
+      </c>
+      <c r="G236" s="12">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="H236" s="11">
+        <v>35</v>
+      </c>
+      <c r="I236" s="12">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="J236" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C237" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D237" s="11">
+        <v>78</v>
+      </c>
+      <c r="E237" s="12">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="F237" s="11">
+        <v>57</v>
+      </c>
+      <c r="G237" s="12">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="H237" s="11">
+        <v>78</v>
+      </c>
+      <c r="I237" s="12">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="J237" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C238" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D238" s="11">
+        <v>87</v>
+      </c>
+      <c r="E238" s="12">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F238" s="11">
+        <v>102</v>
+      </c>
+      <c r="G238" s="12">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="H238" s="11">
+        <v>103</v>
+      </c>
+      <c r="I238" s="12">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="J238" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C239" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D239" s="11">
+        <v>85</v>
+      </c>
+      <c r="E239" s="12">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F239" s="11">
+        <v>101</v>
+      </c>
+      <c r="G239" s="12">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="H239" s="11">
+        <v>104</v>
+      </c>
+      <c r="I239" s="12">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="J239" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B240" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C240" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D240" s="11">
+        <v>105</v>
+      </c>
+      <c r="E240" s="12">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="F240" s="11">
+        <v>118</v>
+      </c>
+      <c r="G240" s="12">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H240" s="11">
+        <v>110</v>
+      </c>
+      <c r="I240" s="12">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="J240" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C241" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D241" s="11">
+        <v>75</v>
+      </c>
+      <c r="E241" s="12">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="F241" s="11">
+        <v>120</v>
+      </c>
+      <c r="G241" s="12">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="H241" s="11">
+        <v>121</v>
+      </c>
+      <c r="I241" s="12">
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="J241" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C242" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D242" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E242" s="12">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="F242" s="11">
+        <v>9</v>
+      </c>
+      <c r="G242" s="12">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="H242" s="11">
+        <v>8</v>
+      </c>
+      <c r="I242" s="12">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="J242" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C243" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D243" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E243" s="12">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G243" s="12">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="H243" s="11">
+        <v>35</v>
+      </c>
+      <c r="I243" s="12">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="J243" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C244" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D244" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E244" s="12">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G244" s="12">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="H244" s="11">
+        <v>69</v>
+      </c>
+      <c r="I244" s="12">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="J244" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C245" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D245" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E245" s="12">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="F245" s="11">
+        <v>51</v>
+      </c>
+      <c r="G245" s="12">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="H245" s="11">
+        <v>74</v>
+      </c>
+      <c r="I245" s="12">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="J245" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C246" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D246" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E246" s="12">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="F246" s="11">
+        <v>144</v>
+      </c>
+      <c r="G246" s="12">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="H246" s="11">
+        <v>153</v>
+      </c>
+      <c r="I246" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J246" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C247" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D247" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E247" s="12">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="F247" s="11">
+        <v>189</v>
+      </c>
+      <c r="G247" s="12">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="H247" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I247" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J247" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C248" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E248" s="12">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="F248" s="11">
+        <v>273</v>
+      </c>
+      <c r="G248" s="12">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="H248" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I248" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J248" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C249" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D249" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E249" s="12">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="F249" s="11">
+        <v>244</v>
+      </c>
+      <c r="G249" s="12">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="H249" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I249" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J249" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B250" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C250" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D250" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E250" s="12">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="F250" s="11">
+        <v>335</v>
+      </c>
+      <c r="G250" s="12">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="H250" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I250" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J250" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C251" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D251" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E251" s="12">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F251" s="11">
+        <v>368</v>
+      </c>
+      <c r="G251" s="12">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="H251" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I251" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J251" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C252" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D252" s="18"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="18"/>
+      <c r="J252" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C253" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D253" s="18"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="18"/>
+      <c r="I253" s="18"/>
+      <c r="J253" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C254" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D254" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E254" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F254" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G254" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H254" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I254" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J254" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C255" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D255" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E255" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F255" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G255" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H255" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I255" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J255" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B256" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C256" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D256" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E256" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F256" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G256" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H256" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I256" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J256" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C257" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D257" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E257" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F257" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G257" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H257" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I257" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J257" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C258" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D258" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E258" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F258" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G258" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H258" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I258" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J258" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C259" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D259" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E259" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F259" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G259" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H259" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I259" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J259" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C260" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D260" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E260" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F260" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G260" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H260" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I260" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J260" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C261" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D261" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E261" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F261" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G261" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H261" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I261" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J261" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C262" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D262" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E262" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F262" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G262" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H262" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I262" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J262" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C263" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D263" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E263" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F263" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G263" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H263" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I263" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J263" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B264" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C264" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D264" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E264" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F264" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G264" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H264" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I264" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J264" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C265" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D265" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E265" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F265" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G265" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H265" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I265" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J265" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B266" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C266" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D266" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E266" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G266" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H266" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I266" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J266" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B267" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C267" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D267" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E267" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F267" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G267" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H267" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I267" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J267" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B268" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C268" s="19">
+        <v>40446</v>
+      </c>
+      <c r="D268" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E268" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F268" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G268" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H268" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I268" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J268" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C333" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D333" s="11">
+        <v>2</v>
+      </c>
+      <c r="E333" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F333" s="11">
+        <v>1</v>
+      </c>
+      <c r="G333" s="12">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="H333" s="11">
+        <v>1</v>
+      </c>
+      <c r="I333" s="12">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="J333" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C334" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D334" s="11">
+        <v>4</v>
+      </c>
+      <c r="E334" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F334" s="11">
+        <v>2</v>
+      </c>
+      <c r="G334" s="12">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="H334" s="11">
+        <v>2</v>
+      </c>
+      <c r="I334" s="12">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="J334" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B335" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C335" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D335" s="11">
+        <v>3</v>
+      </c>
+      <c r="E335" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F335" s="11">
+        <v>3</v>
+      </c>
+      <c r="G335" s="12">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="H335" s="11">
+        <v>3</v>
+      </c>
+      <c r="I335" s="12">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="J335" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B336" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C336" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D336" s="11">
+        <v>14</v>
+      </c>
+      <c r="E336" s="12">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F336" s="11">
+        <v>8</v>
+      </c>
+      <c r="G336" s="12">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="H336" s="11">
+        <v>8</v>
+      </c>
+      <c r="I336" s="12">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="J336" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C337" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D337" s="11"/>
+      <c r="E337" s="12">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F337" s="11">
+        <v>12</v>
+      </c>
+      <c r="G337" s="12">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="H337" s="11">
+        <v>11</v>
+      </c>
+      <c r="I337" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J337" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C338" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D338" s="11"/>
+      <c r="E338" s="12">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="F338" s="11">
+        <v>13</v>
+      </c>
+      <c r="G338" s="12">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="H338" s="11">
+        <v>13</v>
+      </c>
+      <c r="I338" s="12">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="J338" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B339" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C339" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D339" s="11">
+        <v>11</v>
+      </c>
+      <c r="E339" s="12">
+        <v>0.22847222222222222</v>
+      </c>
+      <c r="F339" s="11">
+        <v>10</v>
+      </c>
+      <c r="G339" s="12">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="H339" s="11">
+        <v>14</v>
+      </c>
+      <c r="I339" s="12">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="J339" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B340" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C340" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D340" s="11">
+        <v>15</v>
+      </c>
+      <c r="E340" s="12">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="F340" s="11">
+        <v>11</v>
+      </c>
+      <c r="G340" s="12">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H340" s="11">
+        <v>16</v>
+      </c>
+      <c r="I340" s="12">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="J340" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B341" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C341" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D341" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E341" s="12">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="F341" s="11">
+        <v>17</v>
+      </c>
+      <c r="G341" s="12">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="H341" s="11">
+        <v>17</v>
+      </c>
+      <c r="I341" s="12">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="J341" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B342" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C342" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E342" s="12">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="F342" s="11">
+        <v>20</v>
+      </c>
+      <c r="G342" s="12">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="H342" s="11">
+        <v>18</v>
+      </c>
+      <c r="I342" s="12">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="J342" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B343" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C343" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D343" s="11">
+        <v>13</v>
+      </c>
+      <c r="E343" s="12">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F343" s="11">
+        <v>15</v>
+      </c>
+      <c r="G343" s="12">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="H343" s="11">
+        <v>20</v>
+      </c>
+      <c r="I343" s="12">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="J343" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B344" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C344" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D344" s="11">
+        <v>12</v>
+      </c>
+      <c r="E344" s="12">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="F344" s="11">
+        <v>18</v>
+      </c>
+      <c r="G344" s="12">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="H344" s="11">
+        <v>21</v>
+      </c>
+      <c r="I344" s="12">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="J344" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B345" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C345" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D345" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E345" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F345" s="11">
+        <v>29</v>
+      </c>
+      <c r="G345" s="12">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="H345" s="11">
+        <v>29</v>
+      </c>
+      <c r="I345" s="12">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="J345" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B346" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C346" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D346" s="11">
+        <v>36</v>
+      </c>
+      <c r="E346" s="12">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F346" s="11">
+        <v>37</v>
+      </c>
+      <c r="G346" s="12">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="H346" s="11">
+        <v>37</v>
+      </c>
+      <c r="I346" s="12">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="J346" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B347" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C347" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D347" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E347" s="12">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="F347" s="11">
+        <v>39</v>
+      </c>
+      <c r="G347" s="12">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="H347" s="11">
+        <v>38</v>
+      </c>
+      <c r="I347" s="12">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="J347" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B348" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C348" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D348" s="11">
+        <v>32</v>
+      </c>
+      <c r="E348" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F348" s="11">
+        <v>33</v>
+      </c>
+      <c r="G348" s="12">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H348" s="11">
+        <v>42</v>
+      </c>
+      <c r="I348" s="12">
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="J348" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B349" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C349" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D349" s="11">
+        <v>51</v>
+      </c>
+      <c r="E349" s="12">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="F349" s="11">
+        <v>51</v>
+      </c>
+      <c r="G349" s="12">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="H349" s="11">
+        <v>49</v>
+      </c>
+      <c r="I349" s="12">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="J349" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B350" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C350" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D350" s="11">
+        <v>52</v>
+      </c>
+      <c r="E350" s="12">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="F350" s="11">
+        <v>50</v>
+      </c>
+      <c r="G350" s="12">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="H350" s="11">
+        <v>51</v>
+      </c>
+      <c r="I350" s="12">
+        <v>0.87361111111111101</v>
+      </c>
+      <c r="J350" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B351" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C351" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D351" s="11">
+        <v>54</v>
+      </c>
+      <c r="E351" s="12">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="F351" s="11">
+        <v>52</v>
+      </c>
+      <c r="G351" s="12">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="H351" s="11">
+        <v>52</v>
+      </c>
+      <c r="I351" s="12">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="J351" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B352" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C352" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D352" s="11">
+        <v>33</v>
+      </c>
+      <c r="E352" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F352" s="11">
+        <v>48</v>
+      </c>
+      <c r="G352" s="12">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="H352" s="11">
+        <v>56</v>
+      </c>
+      <c r="I352" s="12">
+        <v>0.90486111111111101</v>
+      </c>
+      <c r="J352" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B353" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C353" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D353" s="11">
+        <v>67</v>
+      </c>
+      <c r="E353" s="12">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="F353" s="11">
+        <v>62</v>
+      </c>
+      <c r="G353" s="12">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="H353" s="11">
+        <v>59</v>
+      </c>
+      <c r="I353" s="12">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="J353" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C354" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D354" s="11">
+        <v>66</v>
+      </c>
+      <c r="E354" s="12">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F354" s="11">
+        <v>63</v>
+      </c>
+      <c r="G354" s="12">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="H354" s="11">
+        <v>62</v>
+      </c>
+      <c r="I354" s="12">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="J354" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B355" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C355" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D355" s="11"/>
+      <c r="E355" s="12"/>
+      <c r="F355" s="11"/>
+      <c r="G355" s="12"/>
+      <c r="H355" s="11"/>
+      <c r="I355" s="12"/>
+      <c r="J355" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B356" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C356" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D356" s="11"/>
+      <c r="E356" s="12"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="12"/>
+      <c r="H356" s="11"/>
+      <c r="I356" s="12"/>
+      <c r="J356" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B357" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C357" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D357" s="18"/>
+      <c r="E357" s="18"/>
+      <c r="F357" s="18"/>
+      <c r="G357" s="18"/>
+      <c r="H357" s="18"/>
+      <c r="I357" s="18"/>
+      <c r="J357" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B358" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C358" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D358" s="11">
+        <v>1</v>
+      </c>
+      <c r="E358" s="12">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F358" s="11">
+        <v>1</v>
+      </c>
+      <c r="G358" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H358" s="11">
+        <v>1</v>
+      </c>
+      <c r="I358" s="12">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="J358" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B359" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C359" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D359" s="11">
+        <v>8</v>
+      </c>
+      <c r="E359" s="12">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="F359" s="11">
+        <v>4</v>
+      </c>
+      <c r="G359" s="12">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="H359" s="11">
+        <v>3</v>
+      </c>
+      <c r="I359" s="12">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="J359" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B360" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C360" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D360" s="11">
+        <v>9</v>
+      </c>
+      <c r="E360" s="12">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="F360" s="11">
+        <v>5</v>
+      </c>
+      <c r="G360" s="12">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="H360" s="11">
+        <v>4</v>
+      </c>
+      <c r="I360" s="12">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="J360" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B361" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C361" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D361" s="11">
+        <v>4</v>
+      </c>
+      <c r="E361" s="12">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="F361" s="11">
+        <v>7</v>
+      </c>
+      <c r="G361" s="12">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="H361" s="11">
+        <v>6</v>
+      </c>
+      <c r="I361" s="12">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="J361" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B362" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C362" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D362" s="11">
+        <v>7</v>
+      </c>
+      <c r="E362" s="12">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="F362" s="11">
+        <v>6</v>
+      </c>
+      <c r="G362" s="12">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="H362" s="11">
+        <v>7</v>
+      </c>
+      <c r="I362" s="12">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="J362" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B363" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C363" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D363" s="11">
+        <v>12</v>
+      </c>
+      <c r="E363" s="12">
+        <v>0.28125</v>
+      </c>
+      <c r="F363" s="11">
+        <v>8</v>
+      </c>
+      <c r="G363" s="12">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="H363" s="11">
+        <v>8</v>
+      </c>
+      <c r="I363" s="12">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="J363" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C364" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D364" s="11">
+        <v>6</v>
+      </c>
+      <c r="E364" s="12">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F364" s="11">
+        <v>9</v>
+      </c>
+      <c r="G364" s="12">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="H364" s="11">
+        <v>12</v>
+      </c>
+      <c r="I364" s="12">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="J364" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B365" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C365" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D365" s="11">
+        <v>22</v>
+      </c>
+      <c r="E365" s="12">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="F365" s="11">
+        <v>20</v>
+      </c>
+      <c r="G365" s="12">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="H365" s="11">
+        <v>18</v>
+      </c>
+      <c r="I365" s="12">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="J365" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B366" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C366" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D366" s="11">
+        <v>20</v>
+      </c>
+      <c r="E366" s="12">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="F366" s="11">
+        <v>19</v>
+      </c>
+      <c r="G366" s="12">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="H366" s="11">
+        <v>19</v>
+      </c>
+      <c r="I366" s="12">
+        <v>0.96736111111111101</v>
+      </c>
+      <c r="J366" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B367" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C367" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D367" s="11">
+        <v>23</v>
+      </c>
+      <c r="E367" s="12">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="F367" s="11">
+        <v>21</v>
+      </c>
+      <c r="G367" s="12">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="H367" s="11">
+        <v>21</v>
+      </c>
+      <c r="I367" s="16">
+        <v>0.98055555555555562</v>
+      </c>
+      <c r="J367" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C368" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D368" s="11">
+        <v>31</v>
+      </c>
+      <c r="E368" s="12">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="F368" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G368" s="12">
+        <v>0.65625</v>
+      </c>
+      <c r="H368" s="11">
+        <v>26</v>
+      </c>
+      <c r="I368" s="16">
+        <v>1.0250000000000001</v>
+      </c>
+      <c r="J368" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C369" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D369" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E369" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F369" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G369" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H369" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I369" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J369" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C370" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D370" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E370" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F370" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G370" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H370" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I370" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J370" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C371" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D371" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E371" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F371" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G371" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H371" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I371" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J371" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C372" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D372" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E372" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F372" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G372" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H372" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I372" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J372" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C373" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D373" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E373" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F373" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G373" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H373" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I373" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J373" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C374" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D374" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E374" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F374" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G374" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H374" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I374" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J374" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C375" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D375" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E375" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F375" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G375" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H375" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I375" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J375" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C376" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D376" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E376" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F376" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G376" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H376" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I376" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J376" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C377" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D377" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E377" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F377" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G377" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H377" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I377" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J377" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C378" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D378" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E378" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F378" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G378" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H378" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I378" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J378" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C379" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D379" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E379" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F379" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G379" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H379" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I379" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J379" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B380" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C380" s="19">
+        <v>40449</v>
+      </c>
+      <c r="D380" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E380" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F380" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G380" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H380" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I380" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J380" s="18" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A242:J253">
+    <sortCondition ref="J242:J253"/>
+  </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
